--- a/test-output/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/ExcelReport/ExtentExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -13,65 +13,22 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
-    <sheet name="Features" sheetId="19" r:id="rId4"/>
-    <sheet name="Exceptions" sheetId="22" r:id="rId5"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
-    <definedName name="Chart71">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>mounishsaha</author>
-  </authors>
-  <commentList>
-    <comment ref="H19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mounishsaha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
   <si>
     <t>Duration</t>
   </si>
@@ -145,9 +102,6 @@
     <t>SCENARIO STATUS</t>
   </si>
   <si>
-    <t>tag1</t>
-  </si>
-  <si>
     <t>Excel Extent Report</t>
   </si>
   <si>
@@ -202,34 +156,34 @@
     <t>Scenario</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED TAGS</t>
+  </si>
+  <si>
+    <t>TAG NAME</t>
+  </si>
+  <si>
     <t>FAILED &amp; SKIPPED SCENARIOS</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:21 PM</t>
+    <t>Jan 06, 2023 2:45:11 PM</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:19 PM</t>
+    <t>Jan 06, 2023 2:45:09 PM</t>
   </si>
   <si>
-    <t>0.249 s</t>
-  </si>
-  <si>
-    <t>Feature Fail</t>
-  </si>
-  <si>
-    <t>Scenario Fail</t>
+    <t>0.253 s</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>0.016 s</t>
+    <t>0.015 s</t>
   </si>
   <si>
-    <t>0.027 s</t>
+    <t>0.023 s</t>
   </si>
   <si>
-    <t>TAG NAME</t>
+    <t>tag1</t>
   </si>
   <si>
     <t>tag</t>
@@ -241,25 +195,25 @@
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>SCENARIO</t>
-  </si>
-  <si>
-    <t>FEATURE</t>
-  </si>
-  <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>SKIPPED</t>
   </si>
   <si>
+    <t>STEPS</t>
+  </si>
+  <si>
     <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>FEATURE</t>
   </si>
   <si>
     <t>PASS %</t>
@@ -268,54 +222,67 @@
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>May 04, 2024 12:51:20 am</t>
   </si>
   <si>
-    <t>May 03, 2024 8:20:34 pm</t>
+    <t>May 04, 2024 12:50:56 am</t>
   </si>
   <si>
-    <t>May 03, 2024 8:20:13 pm</t>
+    <t>May 04, 2024 12:51:16 am</t>
   </si>
   <si>
-    <t>May 03, 2024 8:20:25 pm</t>
-  </si>
-  <si>
-    <t>11.827 s</t>
+    <t>19.879 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>75%</t>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>@Search</t>
+  </si>
+  <si>
+    <t>@Regression</t>
+  </si>
+  <si>
+    <t>@skip_scenario</t>
   </si>
   <si>
     <t>Search Functionality</t>
   </si>
   <si>
+    <t>User searches without any product</t>
+  </si>
+  <si>
     <t>User searches for a valid product</t>
   </si>
   <si>
-    <t>9.986 s</t>
+    <t>7.136 s</t>
   </si>
   <si>
-    <t>10.000 s</t>
+    <t>User searches for an invalid product</t>
   </si>
   <si>
-    <t>Then User should get valid product displayed in Search results</t>
+    <t>6.675 s</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError
-	at org.junit.Assert.fail(Assert.java:87)
-	at org.junit.Assert.fail(Assert.java:96)
-	at stepdefinations.Search.User_should_get_valid_product_displayed_in_Search_results(Search.java:54)
-	at ✽.User should get valid product displayed in Search results(file:///F:/Eclipse_workspace_22March_2024/eclipse-workspace/CucumberHybridProject/src/test/resources/features/Search.feature:7)
-</t>
+    <t>4.756 s</t>
+  </si>
+  <si>
+    <t>@Smoke</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>18.626 s</t>
   </si>
 </sst>
 </file>
@@ -323,7 +290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +302,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,19 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -382,14 +343,34 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -399,29 +380,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,7 +400,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,17 +408,23 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
       <b val="true"/>
     </font>
     <font>
@@ -484,6 +451,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,12 +516,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -617,9 +585,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -647,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -655,170 +621,108 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
@@ -840,7 +744,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -850,6 +754,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,30 +811,24 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Features with Failed &amp; Skipped</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t> Scenarios</a:t>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -938,10 +842,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3440412897698315E-2"/>
-          <c:y val="0.10261559944911276"/>
-          <c:w val="0.89710845542622875"/>
-          <c:h val="0.85411987031170589"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -953,7 +857,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DB Data'!$J$19</c:f>
+              <c:f>'DB Data'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -995,37 +899,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Search Functionality</c:v>
+                  <c:v>@Search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@skip_scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$J$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$B$20:$B$22</c:f>
+              <c:numCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21E5-4428-A15E-036A9644B09D}"/>
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DB Data'!$L$19</c:f>
+              <c:f>'DB Data'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario Skipped</c:v>
+                  <c:v>Scenario Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1057,43 +972,60 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Search Functionality</c:v>
+                  <c:v>@Search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@skip_scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$L$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$D$20:$D$22</c:f>
+              <c:numCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21E5-4428-A15E-036A9644B09D}"/>
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DB Data'!$K$19</c:f>
+              <c:f>'DB Data'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scenario Failed</c:v>
+                  <c:v>Scenario Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1125,35 +1057,36 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Search Functionality</c:v>
+                  <c:v>@Search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@skip_scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$K$20</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$C$20:$C$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-21E5-4428-A15E-036A9644B09D}"/>
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1167,11 +1100,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62483072"/>
-        <c:axId val="62415232"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62483072"/>
+        <c:axId val="46151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1114,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62415232"/>
+        <c:crossAx val="46117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1189,13 +1122,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62415232"/>
+        <c:axId val="46117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1203,16 +1142,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1222,21 +1157,15 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62483072"/>
+        <c:crossAx val="46151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1256,13 +1185,374 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$H$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Search Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$G$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46512000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46513536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46513536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46512000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1283,9 +1573,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.33104174160971E-2"/>
-          <c:y val="0.17399131020088512"/>
-          <c:w val="0.93298799578986635"/>
+          <c:x val="5.3310417416097107E-2"/>
+          <c:y val="0.17399131020088515"/>
+          <c:w val="0.93298799578986624"/>
           <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
@@ -1328,7 +1618,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-69CD-4D95-9BCF-D378A2484937}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1353,7 +1643,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-69CD-4D95-9BCF-D378A2484937}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1378,39 +1668,10 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-69CD-4D95-9BCF-D378A2484937}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$C$2:$C$4</c:f>
@@ -1448,7 +1709,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-69CD-4D95-9BCF-D378A2484937}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1477,14 +1738,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1510,7 +1771,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Authors</a:t>
@@ -1518,7 +1779,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1528,10 +1788,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8373416084820274E-2"/>
-          <c:y val="9.6685905151971507E-2"/>
-          <c:w val="0.96024825446082229"/>
-          <c:h val="0.86092489769092662"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1578,7 +1838,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1589,7 +1848,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1608,7 +1867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5124-4442-80A2-16D405C7E35F}"/>
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1652,7 +1911,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1663,7 +1921,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1682,7 +1940,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5124-4442-80A2-16D405C7E35F}"/>
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1726,7 +1984,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1737,7 +1994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>AUTHOR NAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1756,7 +2013,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5124-4442-80A2-16D405C7E35F}"/>
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1770,11 +2027,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62946688"/>
-        <c:axId val="62968960"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62946688"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +2041,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62968960"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62968960"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +2067,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -1818,14 +2075,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62946688"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1849,13 +2105,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1881,7 +2137,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Devices</a:t>
@@ -1889,7 +2145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1899,10 +2154,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8373416084820274E-2"/>
-          <c:y val="9.6685905151971507E-2"/>
-          <c:w val="0.96024825446082229"/>
-          <c:h val="0.86092489769092662"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1949,7 +2204,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1979,7 +2233,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F102-4FE7-A7E0-DABD087B37CE}"/>
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2023,7 +2277,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2053,7 +2306,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F102-4FE7-A7E0-DABD087B37CE}"/>
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2097,7 +2350,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2127,7 +2379,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F102-4FE7-A7E0-DABD087B37CE}"/>
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2141,11 +2393,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62946688"/>
-        <c:axId val="62968960"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62946688"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2407,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62968960"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62968960"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2433,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -2189,14 +2441,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62946688"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2220,7 +2471,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2252,15 +2503,33 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2270,10 +2539,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8313518273888155E-2"/>
-          <c:y val="0.10274354471012281"/>
-          <c:w val="0.9323117569352708"/>
-          <c:h val="0.8539379810924318"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2285,11 +2554,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DB Data'!$R$19</c:f>
+              <c:f>'DB Data'!$J$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Step Passed</c:v>
+                  <c:v>Scenario Passed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2320,49 +2589,48 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User searches for a valid product</c:v>
+                  <c:v>Search Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$J$20</c:f>
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DB Data'!$S$19</c:f>
+              <c:f>'DB Data'!$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Step Failed</c:v>
+                  <c:v>Scenario Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2393,44 +2661,48 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User searches for a valid product</c:v>
+                  <c:v>Search Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DB Data'!$T$19</c:f>
+              <c:f>'DB Data'!$K$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Step Skipped</c:v>
+                  <c:v>Scenario Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2461,36 +2733,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User searches for a valid product</c:v>
+                  <c:v>Search Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2504,11 +2770,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62860288"/>
-        <c:axId val="62870272"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62860288"/>
+        <c:axId val="46193280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2784,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62870272"/>
+        <c:crossAx val="46285184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2526,9 +2792,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62870272"/>
+        <c:axId val="46285184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2539,29 +2806,39 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Steps</a:t>
+                  <a:t>Scenarios</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62860288"/>
+        <c:crossAx val="46193280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2581,7 +2858,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2611,9 +2888,360 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User searches without any product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User searches without any product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User searches without any product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Features</a:t>
@@ -2625,8 +3253,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.1527224435590979E-2"/>
-          <c:y val="5.3411103774677782E-2"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2638,10 +3266,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2613864443415166E-2"/>
-          <c:y val="0.11008420605172034"/>
-          <c:w val="0.90409526015130459"/>
-          <c:h val="0.85983853317969527"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2683,7 +3311,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1925-49B6-827A-B853D3337F7F}"/>
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2708,7 +3336,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1925-49B6-827A-B853D3337F7F}"/>
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2733,7 +3361,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1925-49B6-827A-B853D3337F7F}"/>
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2805,7 +3433,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1925-49B6-827A-B853D3337F7F}"/>
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2834,14 +3462,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2861,13 +3489,13 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -2879,8 +3507,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6557632398753896E-2"/>
-          <c:y val="7.6408787010506206E-3"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2892,10 +3520,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4384183285500524E-2"/>
-          <c:y val="6.4419827177763234E-2"/>
-          <c:w val="0.91950658620943415"/>
-          <c:h val="0.90211763644157661"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -2937,7 +3565,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9043-498D-B57C-B9E4CCFA9E88}"/>
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2962,7 +3590,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9043-498D-B57C-B9E4CCFA9E88}"/>
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2987,7 +3615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-9043-498D-B57C-B9E4CCFA9E88}"/>
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3059,7 +3687,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9043-498D-B57C-B9E4CCFA9E88}"/>
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3088,14 +3716,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3121,7 +3749,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Steps</a:t>
@@ -3133,8 +3761,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.8754798226494428E-3"/>
-          <c:y val="5.9065638181061884E-2"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3146,10 +3774,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4524060319569115E-2"/>
-          <c:y val="0.10094890069649767"/>
-          <c:w val="0.91911729229686112"/>
-          <c:h val="0.86206927760676177"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -3191,7 +3819,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-47B5-4118-A95C-5D61CE0D4ABE}"/>
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3216,7 +3844,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-47B5-4118-A95C-5D61CE0D4ABE}"/>
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3241,7 +3869,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-47B5-4118-A95C-5D61CE0D4ABE}"/>
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3313,7 +3941,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3342,14 +3970,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3375,7 +4003,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -3392,10 +4020,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
-          <c:y val="9.7816794160272044E-2"/>
-          <c:w val="0.95333333333333337"/>
-          <c:h val="0.85929820242151389"/>
+          <c:x val="3.3278738246891114E-2"/>
+          <c:y val="0.10500003204542271"/>
+          <c:w val="0.953375796178344"/>
+          <c:h val="0.85236429602767994"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3448,29 +4076,38 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>User searches for a valid product</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>User searches for an invalid product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User searches without any product</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22</c:f>
+              <c:f>Scenarios!$H$22:$H$24</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C270-4FB3-8298-7BD9F9C395E2}"/>
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3520,24 +4157,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>User searches for a valid product</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>User searches for an invalid product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User searches without any product</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$J$22:$J$24</c:f>
+              <c:numCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C270-4FB3-8298-7BD9F9C395E2}"/>
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3564,16 +4212,6 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-C270-4FB3-8298-7BD9F9C395E2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3597,29 +4235,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>User searches for a valid product</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>User searches for an invalid product</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>User searches without any product</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Scenarios!$I$22:$I$24</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C270-4FB3-8298-7BD9F9C395E2}"/>
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3633,11 +4272,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62860288"/>
-        <c:axId val="62870272"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62860288"/>
+        <c:axId val="89325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +4286,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62870272"/>
+        <c:crossAx val="44310528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3655,7 +4294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62870272"/>
+        <c:axId val="44310528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +4312,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -3687,7 +4326,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62860288"/>
+        <c:crossAx val="89325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3710,13 +4349,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3739,7 +4378,7 @@
           <c:yMode val="edge"/>
           <c:x val="2.2858134693485639E-2"/>
           <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410513"/>
+          <c:w val="0.96715927750410535"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -3782,7 +4421,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-96B9-4095-8F86-417028E30CA0}"/>
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3807,7 +4446,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-96B9-4095-8F86-417028E30CA0}"/>
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3832,39 +4471,10 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-96B9-4095-8F86-417028E30CA0}"/>
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$E$2:$E$4</c:f>
@@ -3902,7 +4512,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-96B9-4095-8F86-417028E30CA0}"/>
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3936,381 +4546,10 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8373416084820274E-2"/>
-          <c:y val="9.6685905151971507E-2"/>
-          <c:w val="0.96024825446082229"/>
-          <c:h val="0.86092489769092662"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tag</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A32-427E-937B-79D02676AA4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tag</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A32-427E-937B-79D02676AA4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tag</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A32-427E-937B-79D02676AA4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="62946688"/>
-        <c:axId val="62968960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="62946688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="62968960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="62968960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="62946688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4340,11 +4579,10 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4358,10 +4596,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3339410513521725E-2"/>
-          <c:y val="9.8103616813294256E-2"/>
-          <c:w val="0.95329079307201459"/>
-          <c:h val="0.85888563049853373"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4373,7 +4611,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$F$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4414,24 +4652,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Search Functionality</c:v>
+                  <c:v>@Smoke</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@skip_scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22</c:f>
-              <c:numCache/>
+              <c:f>Tags!$D$22:$D$25</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-079B-4EB3-B7E1-AA8E780D524B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4440,7 +4695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$H$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4481,24 +4736,44 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Search Functionality</c:v>
+                  <c:v>@Smoke</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@skip_scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22</c:f>
-              <c:numCache/>
+              <c:f>Tags!$F$22:$F$25</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-079B-4EB3-B7E1-AA8E780D524B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4507,7 +4782,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Features!$G$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4548,29 +4823,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Tags!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Search Functionality</c:v>
+                  <c:v>@Smoke</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@Search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@skip_scenario</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$E$22:$E$25</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-079B-4EB3-B7E1-AA8E780D524B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4584,11 +4863,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62483072"/>
-        <c:axId val="62415232"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62483072"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,7 +4877,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62415232"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4606,10 +4885,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62415232"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4625,7 +4903,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -4639,11 +4917,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62483072"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
-        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4664,7 +4941,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4672,22 +4949,22 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="33" name="Chart 32"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4706,20 +4983,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>34077</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="34" name="Chart 33"/>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4736,53 +5013,1512 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171449" y="85725"/>
-          <a:ext cx="12058651" cy="3343276"/>
-          <a:chOff x="171449" y="85725"/>
-          <a:chExt cx="12058651" cy="3343276"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="85725"/>
-            <a:ext cx="12058651" cy="3343276"/>
-            <a:chOff x="171449" y="85725"/>
-            <a:chExt cx="12058651" cy="3343276"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Rectangle 1"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171450" y="95250"/>
+              <a:off x="171450" y="133349"/>
               <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4835,1285 +6571,16 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="Rectangle 2"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8458199" y="95250"/>
-              <a:ext cx="3749040" cy="320040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr lvl="0" algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>Start Time</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="Rectangle 3"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="457200"/>
-              <a:ext cx="3749040" cy="320040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>End Time</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1000125" y="95249"/>
-              <a:ext cx="2924175" cy="676275"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-                <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>0.249 s</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9420225" y="104775"/>
-              <a:ext cx="2781300" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9420225" y="466725"/>
-              <a:ext cx="2809875" cy="314325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-                <a:rPr lang="en-US" sz="1400" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:pPr algn="ctr"/>
-                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
-              </a:fld>
-              <a:endParaRPr lang="en-US" sz="1400" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="8" name="Group 7"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="171449" y="85725"/>
-              <a:ext cx="12045316" cy="3343276"/>
-              <a:chOff x="152399" y="89660"/>
-              <a:chExt cx="12045316" cy="3107067"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="9" name="Group 8"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="152399" y="665043"/>
-                <a:ext cx="3749040" cy="2531684"/>
-                <a:chOff x="152399" y="665043"/>
-                <a:chExt cx="3749040" cy="2531684"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="24" name="Rectangle 23"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="152399" y="784621"/>
-                  <a:ext cx="3749040" cy="2379428"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="6350"/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="dk1"/>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="lt1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="dk1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="en-US" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="25" name="Group 24"/>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="266701" y="665043"/>
-                  <a:ext cx="3611879" cy="2531684"/>
-                  <a:chOff x="266701" y="665043"/>
-                  <a:chExt cx="3611879" cy="2531684"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="26" name="Group 25"/>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="2781300" y="829451"/>
-                    <a:ext cx="1097280" cy="764816"/>
-                    <a:chOff x="2781300" y="829451"/>
-                    <a:chExt cx="1097280" cy="764816"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:sp macro="" textlink="">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
-                    <xdr:cNvSpPr/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="2781300" y="829451"/>
-                      <a:ext cx="1097280" cy="764816"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="roundRect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln w="3175"/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="2">
-                      <a:schemeClr val="dk1"/>
-                    </a:lnRef>
-                    <a:fillRef idx="1">
-                      <a:schemeClr val="lt1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1100">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:t>PASSED</a:t>
-                      </a:r>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1100">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:t>FAILED</a:t>
-                      </a:r>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1100">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:t>SKIPPED</a:t>
-                      </a:r>
-                    </a:p>
-                    <a:p>
-                      <a:pPr algn="l"/>
-                      <a:r>
-                        <a:rPr lang="en-US" sz="1100">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:t>TOTAL</a:t>
-                      </a:r>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="'DB Data'!$D$2">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="29" name="TextBox 28"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="3390900" y="833283"/>
-                      <a:ext cx="466725" cy="247651"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln w="9525" cmpd="sng">
-                      <a:noFill/>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
-                        <a:rPr lang="en-US" sz="1100" b="0">
-                          <a:solidFill>
-                            <a:srgbClr val="27F959"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:pPr algn="ctr"/>
-                        <a:t>1</a:t>
-                      </a:fld>
-                      <a:endParaRPr lang="en-US" sz="1100" b="0">
-                        <a:solidFill>
-                          <a:srgbClr val="27F959"/>
-                        </a:solidFill>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="'DB Data'!$D$3">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="30" name="TextBox 29"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="3381375" y="996552"/>
-                      <a:ext cx="485776" cy="247651"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln w="9525" cmpd="sng">
-                      <a:noFill/>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
-                        <a:rPr lang="en-US" sz="1100" b="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:pPr algn="ctr"/>
-                        <a:t>2</a:t>
-                      </a:fld>
-                      <a:endParaRPr lang="en-US" sz="1100" b="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-                <xdr:sp macro="" textlink="'DB Data'!$D$4">
-                  <xdr:nvSpPr>
-                    <xdr:cNvPr id="31" name="TextBox 30"/>
-                    <xdr:cNvSpPr txBox="1"/>
-                  </xdr:nvSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="3381375" y="1142122"/>
-                      <a:ext cx="485775" cy="257174"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln w="9525" cmpd="sng">
-                      <a:noFill/>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:scrgbClr r="0" g="0" b="0"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="dk1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                  <xdr:txBody>
-                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr algn="ctr"/>
-                      <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
-                        <a:rPr lang="en-US" sz="1100" b="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFF00"/>
-                          </a:solidFill>
-                        </a:rPr>
-                        <a:pPr algn="ctr"/>
-                        <a:t>1</a:t>
-                      </a:fld>
-                      <a:endParaRPr lang="en-US" sz="1100" b="0">
-                        <a:solidFill>
-                          <a:srgbClr val="FFFF00"/>
-                        </a:solidFill>
-                      </a:endParaRPr>
-                    </a:p>
-                  </xdr:txBody>
-                </xdr:sp>
-              </xdr:grpSp>
-              <xdr:graphicFrame macro="">
-                <xdr:nvGraphicFramePr>
-                  <xdr:cNvPr id="27" name="FeatureDough"/>
-                  <xdr:cNvGraphicFramePr>
-                    <a:graphicFrameLocks/>
-                  </xdr:cNvGraphicFramePr>
-                </xdr:nvGraphicFramePr>
-                <xdr:xfrm>
-                  <a:off x="266701" y="665043"/>
-                  <a:ext cx="2590800" cy="2531684"/>
-                </xdr:xfrm>
-                <a:graphic>
-                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-                  </a:graphicData>
-                </a:graphic>
-              </xdr:graphicFrame>
-            </xdr:grpSp>
-          </xdr:grpSp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="10" name="Group 9"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="3981448" y="89660"/>
-                <a:ext cx="4389120" cy="3089362"/>
-                <a:chOff x="3981448" y="89660"/>
-                <a:chExt cx="4389120" cy="3089362"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="18" name="Rectangle 17"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="3981448" y="98510"/>
-                  <a:ext cx="4389120" cy="3059264"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="6350"/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="dk1"/>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="lt1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="dk1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="en-US" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7134225" y="156698"/>
-                  <a:ext cx="1188720" cy="849796"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln w="3175"/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="dk1"/>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="lt1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="dk1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>PASSED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FAILED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>SKIPPED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>TOTAL</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$F$2">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="20" name="TextBox 19"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7791450" y="195938"/>
-                  <a:ext cx="533400" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="51FF21"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$F$3">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="21" name="TextBox 20"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7791449" y="368060"/>
-                  <a:ext cx="533401" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$F$4">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="22" name="TextBox 21"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7800975" y="531332"/>
-                  <a:ext cx="523875" cy="257174"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>2</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFF00"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:graphicFrame macro="">
-              <xdr:nvGraphicFramePr>
-                <xdr:cNvPr id="23" name="FeatureDough"/>
-                <xdr:cNvGraphicFramePr>
-                  <a:graphicFrameLocks/>
-                </xdr:cNvGraphicFramePr>
-              </xdr:nvGraphicFramePr>
-              <xdr:xfrm>
-                <a:off x="4010025" y="89660"/>
-                <a:ext cx="3261360" cy="3089362"/>
-              </xdr:xfrm>
-              <a:graphic>
-                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-                </a:graphicData>
-              </a:graphic>
-            </xdr:graphicFrame>
-          </xdr:grpSp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="11" name="Group 10"/>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="8448675" y="638489"/>
-                <a:ext cx="3749040" cy="2549386"/>
-                <a:chOff x="8448675" y="638489"/>
-                <a:chExt cx="3749040" cy="2549386"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="12" name="Rectangle 11"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="8448675" y="783949"/>
-                  <a:ext cx="3749040" cy="2379428"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="6350"/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="dk1"/>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="lt1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="dk1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="en-US" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="11068051" y="820600"/>
-                  <a:ext cx="1097280" cy="764816"/>
-                </a:xfrm>
-                <a:prstGeom prst="roundRect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:ln w="3175"/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="dk1"/>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="lt1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="dk1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>PASSED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>FAILED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>SKIPPED</a:t>
-                  </a:r>
-                </a:p>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:rPr>
-                    <a:t>TOTAL</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$H$2">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="14" name="TextBox 13"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="11649074" y="824430"/>
-                  <a:ext cx="495301" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="51FF21"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>6</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="51FF21"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$H$3">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="15" name="TextBox 14"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="11658600" y="987701"/>
-                  <a:ext cx="485775" cy="247651"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="'DB Data'!$H$4">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="16" name="TextBox 15"/>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="11668125" y="1142121"/>
-                  <a:ext cx="476249" cy="239936"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-                <a:ln w="9525" cmpd="sng">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFF00"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:rPr>
-                    <a:pPr algn="ctr"/>
-                    <a:t>1</a:t>
-                  </a:fld>
-                  <a:endParaRPr lang="en-US" sz="1200" b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFF00"/>
-                    </a:solidFill>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:graphicFrame macro="">
-              <xdr:nvGraphicFramePr>
-                <xdr:cNvPr id="17" name="FeatureDough"/>
-                <xdr:cNvGraphicFramePr>
-                  <a:graphicFrameLocks/>
-                </xdr:cNvGraphicFramePr>
-              </xdr:nvGraphicFramePr>
-              <xdr:xfrm>
-                <a:off x="8553448" y="638489"/>
-                <a:ext cx="2590801" cy="2549386"/>
-              </xdr:xfrm>
-              <a:graphic>
-                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-                </a:graphicData>
-              </a:graphic>
-            </xdr:graphicFrame>
-          </xdr:grpSp>
-        </xdr:grpSp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="'DB Data'!$H$5">
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="TextBox 34"/>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11687174" y="1390650"/>
-            <a:ext cx="476249" cy="258177"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6138,131 +6605,21 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:fld id="{4CC5DA09-291F-4A51-A717-A0B844BAE6B1}" type="TxLink">
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>8</a:t>
+              <a:t>0.253 s</a:t>
             </a:fld>
-            <a:endParaRPr lang="en-US" sz="1200" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="'DB Data'!$D$5">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="TextBox 35"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3400424" y="1390650"/>
-            <a:ext cx="485775" cy="276725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{F6B299D3-9EF8-434E-91FD-E226C33E779B}" type="TxLink">
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>4</a:t>
-            </a:fld>
-            <a:endParaRPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="'DB Data'!$F$5">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="TextBox 36"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7810500" y="762000"/>
-            <a:ext cx="533399" cy="276725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{E0DBF034-522C-428F-86B0-51B7E09D2269}" type="TxLink">
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>6</a:t>
-            </a:fld>
-            <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6280,12 +6637,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34191</cdr:x>
-      <cdr:y>0.36713</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70518</cdr:x>
-      <cdr:y>0.70979</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
@@ -6294,8 +6651,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="885824" y="1000125"/>
-          <a:ext cx="941156" cy="933450"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6421,7 +6778,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{2097DC7E-C983-47ED-807E-A75BB41970B4}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -6447,12 +6804,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34247</cdr:x>
-      <cdr:y>0.3257</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70491</cdr:x>
-      <cdr:y>0.69836</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
@@ -6461,8 +6818,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1143000" y="1057275"/>
-          <a:ext cx="1209674" cy="1209675"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6588,7 +6945,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{D116F15A-412E-40A6-80BD-CB02BCF9F83C}" type="TxLink">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
             <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -6614,12 +6971,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34191</cdr:x>
-      <cdr:y>0.36207</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70588</cdr:x>
-      <cdr:y>0.7</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
@@ -6628,8 +6985,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="885827" y="1000123"/>
-          <a:ext cx="942975" cy="933450"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6755,7 +7112,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{CAC27D7A-61F0-4BF7-8A00-9B87280C3ADF}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -6782,22 +7139,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1828801</xdr:colOff>
+      <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6930,13 +7285,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -6945,7 +7300,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6975,7 +7330,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{1EE62539-4503-47B1-9014-AE0EB5904036}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -7000,22 +7355,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>866775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>32809</xdr:rowOff>
+      <xdr:rowOff>23284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108787</xdr:rowOff>
+      <xdr:rowOff>99262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$3">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="413809"/>
+          <a:off x="962025" y="404284"/>
           <a:ext cx="638175" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7045,7 +7400,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{541347F2-B924-4EBD-9016-7D70B52E0A34}" type="TxLink">
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -7080,7 +7435,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$4">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7115,7 +7470,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{A47243DB-DD84-4781-B539-D3F128684A26}" type="TxLink">
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="FFFF00"/>
@@ -7142,11 +7497,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32663</cdr:x>
-      <cdr:y>0.41017</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69347</cdr:x>
+      <cdr:x>0.68844</cdr:x>
       <cdr:y>0.71781</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="'DB Data'!$F$6">
@@ -7156,8 +7511,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="619125" y="914400"/>
-          <a:ext cx="695325" cy="685801"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7283,7 +7638,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{16DEB938-1884-4D69-9C30-3844EF920FB3}" type="TxLink">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -7305,6 +7660,41 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -7316,16 +7706,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7468,7 +7856,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7503,19 +7891,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{90FBC278-7B88-49A1-868B-24AA4635DA5C}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -7528,22 +7915,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>32808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>118311</xdr:rowOff>
+      <xdr:rowOff>108786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$3">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981074" y="423333"/>
+          <a:off x="981074" y="413808"/>
           <a:ext cx="552451" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7573,12 +7960,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{9D8330AA-D40D-4308-B052-A77CB19D543A}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>2</a:t>
@@ -7598,22 +7984,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>37044</xdr:rowOff>
+      <xdr:rowOff>27519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1419226</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123269</xdr:rowOff>
+      <xdr:rowOff>113744</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$4">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="608544"/>
+          <a:off x="971550" y="599019"/>
           <a:ext cx="581026" cy="276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7643,12 +8029,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{DFB13DCE-6084-4E13-A2F5-731AC765DAB5}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:srgbClr val="FFFF00"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
@@ -7670,8 +8055,8 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.32995</cdr:x>
-      <cdr:y>0.41927</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.70558</cdr:x>
@@ -7684,8 +8069,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="619124" y="914399"/>
-          <a:ext cx="704851" cy="695325"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7811,7 +8196,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{F5B8AB2B-98F8-475E-8BCB-9E2C4111BF3B}" type="TxLink">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -7831,52 +8216,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Execution"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8166,9 +8505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B37:G39"/>
+  <dimension ref="B19:G64"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8181,50 +8520,134 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
     <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>43</v>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="57" t="s">
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="71" t="s">
+      <c r="C40" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="72" t="s">
-        <v>41</v>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="62" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="49"/>
+      <c r="G64" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="BF0D" scenarios="true" objects="true"/>
-  <mergeCells count="4">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
+  <sheetProtection sheet="true" password="A0E5" scenarios="true" objects="true"/>
+  <mergeCells count="10">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8234,7 +8657,8 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J22"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B20:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8248,88 +8672,402 @@
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="44" t="s">
-        <v>61</v>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="74" t="s">
+      <c r="F22" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H22" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H23" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="70" t="n">
+      <c r="C24" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H22" s="75" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I22" s="76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J22" s="77"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58" t="n">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B20:I36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.28515625"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
+    <col min="3" max="7" customWidth="true" width="12.7109375"/>
+    <col min="8" max="8" customWidth="true" width="60.7109375"/>
+    <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D22" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D23" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:G31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8339,6 +9077,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -8359,101 +9098,103 @@
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="66" t="s">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>61</v>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="70" t="n">
+      <c r="B22" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F22" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="70" t="n">
+      <c r="I22" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K22" s="56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58" t="n">
         <v>4.0</v>
       </c>
-      <c r="K22" s="75" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L22" s="76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8461,66 +9202,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="1.7109375"/>
-    <col min="2" max="3" customWidth="true" width="30.7109375"/>
-    <col min="4" max="4" customWidth="true" width="45.7109375"/>
-    <col min="5" max="5" customWidth="true" width="75.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="true" password="B5F9" scenarios="true" objects="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8557,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
@@ -8566,12 +9253,14 @@
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" s="0"/>
+      <c r="F2" t="n" s="0">
+        <v>2.0</v>
+      </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8579,74 +9268,71 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D3" s="0"/>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F3" s="0"/>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4" s="0"/>
+      <c r="D4" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8654,110 +9340,128 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>73</v>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="L19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="P19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="8" t="s">
+      <c r="Q19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="R19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="S19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="T19" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
-        <v>2</v>
-      </c>
-      <c r="D20" s="0">
-        <v>1</v>
-      </c>
-      <c r="H20" s="69" t="s">
+      <c r="A20" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="B20" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="s" s="49">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>56</v>
+      </c>
+      <c r="J20" s="50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P20" t="s" s="49">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>56</v>
+      </c>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70" t="n">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="L20" s="70"/>
-      <c r="P20" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" s="70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S20" s="70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T20" s="70"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -8765,12 +9469,14 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>